--- a/readme/wiringDiagram.xlsx
+++ b/readme/wiringDiagram.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11670"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ST7789" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -574,6 +574,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,49 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,19 +928,19 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -955,12 +955,12 @@
       <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="29">
+      <c r="B4" s="25">
         <v>6</v>
       </c>
       <c r="C4" s="7"/>
@@ -973,12 +973,12 @@
       <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="31">
+      <c r="B5" s="27">
         <v>1</v>
       </c>
       <c r="C5" s="11"/>
@@ -991,10 +991,10 @@
       <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="29">
+      <c r="B6" s="25">
         <v>19</v>
       </c>
       <c r="C6" s="7">
@@ -1007,10 +1007,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="29">
+      <c r="B7" s="25">
         <v>21</v>
       </c>
       <c r="C7" s="7">
@@ -1021,10 +1021,10 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="29">
+      <c r="B8" s="25">
         <v>23</v>
       </c>
       <c r="C8" s="7">
@@ -1037,10 +1037,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="32"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
+      <c r="B9" s="30">
         <v>29</v>
       </c>
       <c r="C9" s="17">
@@ -1053,10 +1053,10 @@
         <v>17</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="33"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="29">
+      <c r="B10" s="25">
         <v>31</v>
       </c>
       <c r="C10" s="7">
@@ -1069,10 +1069,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="35">
+      <c r="B11" s="31">
         <v>33</v>
       </c>
       <c r="C11" s="11">
@@ -1085,19 +1085,19 @@
         <v>21</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="32"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="37" t="s">
         <v>8</v>
       </c>
     </row>
